--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,62 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KGA\JJ\UnityBasic2\UnityBaisc2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C41FF-2CCC-46BC-BDC3-E941FE0F79BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="-14340" windowWidth="23790" windowHeight="11745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="2" r:id="rId2"/>
+    <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>BG_Room2</t>
+  </si>
+  <si>
+    <t>전 바보가 된 레이나도 좋다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>벤리아나</t>
+  </si>
+  <si>
+    <t>바보친구</t>
+  </si>
+  <si>
+    <t>Benriana_00</t>
+  </si>
+  <si>
+    <t>벤리아나_기본표정</t>
+  </si>
+  <si>
+    <t>Benriana_01</t>
+  </si>
+  <si>
+    <t>벤리아나_웃는표정</t>
+  </si>
+  <si>
+    <t>Benriana_02</t>
+  </si>
+  <si>
+    <t>벤리아나_화난표정</t>
+  </si>
+  <si>
+    <t>레이나</t>
+  </si>
+  <si>
+    <t>바보</t>
+  </si>
+  <si>
+    <t>Reina_00</t>
+  </si>
+  <si>
+    <t>레이나_기본표정</t>
+  </si>
+  <si>
+    <t>Reina_01</t>
+  </si>
+  <si>
+    <t>레이나_웃는표정</t>
+  </si>
+  <si>
+    <t>Reina_02</t>
+  </si>
+  <si>
+    <t>레이나_화난표정</t>
   </si>
   <si>
     <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_Top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_Room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양하게</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>적힐 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>있을 것입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +206,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -99,116 +243,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,42 +435,303 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10102</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10103</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10201</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>10201</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>10202</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>10203</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>